--- a/data/outputs/management_altmetric/74.xlsx
+++ b/data/outputs/management_altmetric/74.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE47"/>
+  <dimension ref="A1:CF47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1023,6 +1028,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>7.9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1268,6 +1276,9 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1515,6 +1526,9 @@
       <c r="CE4" t="n">
         <v>1</v>
       </c>
+      <c r="CF4" t="n">
+        <v>11.7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1760,6 +1774,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>5.08</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2009,6 +2026,9 @@
         <v>0</v>
       </c>
       <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2242,6 +2262,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2473,6 +2496,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2722,6 +2748,9 @@
         <v>0</v>
       </c>
       <c r="CE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2963,6 +2992,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3208,6 +3240,9 @@
         <v>0</v>
       </c>
       <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3457,6 +3492,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3704,6 +3742,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3947,6 +3988,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4192,6 +4236,9 @@
         <v>0</v>
       </c>
       <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4441,6 +4488,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4688,6 +4738,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4939,6 +4992,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5188,6 +5244,9 @@
         <v>0</v>
       </c>
       <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5433,6 +5492,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5676,6 +5738,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5923,6 +5988,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6164,6 +6232,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>3.75</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6419,6 +6490,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6654,6 +6728,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6889,6 +6966,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7124,6 +7204,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7371,6 +7454,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7608,6 +7694,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7849,6 +7938,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>3.75</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8098,6 +8190,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8345,6 +8440,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8588,6 +8686,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8835,6 +8936,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9082,6 +9186,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9325,6 +9432,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9564,6 +9674,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9803,6 +9916,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10056,6 +10172,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10295,6 +10414,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10536,6 +10658,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10771,6 +10896,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11008,6 +11136,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11253,6 +11384,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>6.05</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11494,6 +11628,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11731,6 +11868,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11984,6 +12124,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>2.25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
